--- a/playbook_generator/tests/files/vm_ware.xlsx
+++ b/playbook_generator/tests/files/vm_ware.xlsx
@@ -70,7 +70,7 @@
     <t>VST</t>
   </si>
   <si>
-    <t>iLO Name</t>
+    <t>IPMI Name</t>
   </si>
   <si>
     <t>Username</t>
@@ -550,16 +550,16 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -586,13 +586,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -616,16 +616,16 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -637,31 +637,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -936,17 +936,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -974,10 +974,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1225,12 +1225,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1517,7 +1517,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1545,10 +1545,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
